--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1693315.277244711</v>
+        <v>1797494.911695782</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>197.2040098788574</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>189.2639175433991</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>234.8758626236981</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>48.03104245322853</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>119.5542949307283</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>259.746366456791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,16 +1107,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>157.3648971616175</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>28.34166800730445</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>169.5015886993131</v>
       </c>
       <c r="U8" t="n">
-        <v>238.3262268437782</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.71093418697623</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>143.5675430445374</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1421,13 +1423,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.10645541514072</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>114.8498234654338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465737</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>258.421358645666</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2612,10 +2614,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>71.79687029690999</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>176.7621441121403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>13.94435783112377</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2998,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>180.1003471321698</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>113.4877306469552</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3235,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>183.4720137757393</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3509,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>146.0535160667537</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691033</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892489</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>79.70119244397227</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1458.811090838975</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C2" t="n">
-        <v>1458.811090838975</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1100.545392232224</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>714.7571396339799</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139988</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X2" t="n">
-        <v>2235.550262878908</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y2" t="n">
-        <v>1845.410930903096</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686063</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.071687106474</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080119</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986292</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360.6423967967187</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>360.6423967967187</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
-        <v>542.2908616269584</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>542.2908616269584</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2303.982127379311</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259408</v>
+        <v>2303.982127379311</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2798542473295</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3436713194226</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4720,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1197.720898221099</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1197.720898221099</v>
+        <v>851.5962886800039</v>
       </c>
       <c r="X7" t="n">
-        <v>1197.720898221099</v>
+        <v>851.5962886800039</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.9283190775692</v>
+        <v>630.8037095364738</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
         <v>934.5673701373257</v>
@@ -4799,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3154.392095650268</v>
       </c>
       <c r="U8" t="n">
-        <v>2768.603843052024</v>
+        <v>3154.392095650268</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.540955708454</v>
+        <v>2823.329208306698</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.772300438339</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.306542177259</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y8" t="n">
-        <v>1321.167210201447</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1782.276827841484</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1493.173960967128</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1493.173960967128</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1203.756790930167</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>975.7672400321496</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>754.9746608886195</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.8692823226941</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947872</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5555,10 +5557,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5689,34 +5691,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258101</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602299</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5744,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5844,7 +5846,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034134</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034134</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1899.284239455942</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.599751250055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.182581213094</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315077</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.4004511715466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5993,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,19 +6074,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,49 +6220,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,19 +6311,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>166.3387542569719</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487567</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,34 +6451,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>4435.461999481584</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>4654.193497445481</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>962.6357307816187</v>
+        <v>3047.734188001555</v>
       </c>
       <c r="C31" t="n">
-        <v>793.6995478537118</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>4222.26644111619</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>3967.581952910303</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>3678.164782873342</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>3450.175231975325</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.284195611858</v>
+        <v>3229.382652831795</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>4437.229386686351</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532803</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253734</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>4080.027733789307</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3790.610563752346</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>3562.621012854329</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>3377.295746414188</v>
       </c>
     </row>
     <row r="35">
@@ -6932,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>2490.32382148308</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7159,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7257,22 +7259,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>3047.734188001555</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>4476.258644543163</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>4256.657179566105</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>3967.581952910303</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>3967.581952910303</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>3678.164782873342</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>3450.175231975325</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>3229.382652831795</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811332</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854701</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648814</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W43" t="n">
-        <v>1353.195110654903</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,43 +7657,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,13 +7733,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2312.991837396757</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2023.916610740955</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23315,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>40.30478226780133</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393517</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>137.2878198583942</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>27.76311574357817</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>68.4978425493139</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>75.37549921168772</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>106.0841272570744</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.34424953498208</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>35.11263957635552</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>34.97276993489092</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>206.8218058926187</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670028</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670031</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879881.4739670028</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670031</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670031</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670031</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670031</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
         <v>544823.954790754</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26522,43 +26524,43 @@
         <v>-974659.390548776</v>
       </c>
       <c r="C6" t="n">
-        <v>354085.3551788165</v>
+        <v>354085.3551788166</v>
       </c>
       <c r="D6" t="n">
-        <v>354085.3551788167</v>
+        <v>354085.3551788166</v>
       </c>
       <c r="E6" t="n">
-        <v>105292.0990126609</v>
+        <v>105292.099012661</v>
       </c>
       <c r="F6" t="n">
+        <v>430704.5608200168</v>
+      </c>
+      <c r="G6" t="n">
+        <v>430704.5608200165</v>
+      </c>
+      <c r="H6" t="n">
         <v>430704.5608200164</v>
       </c>
-      <c r="G6" t="n">
-        <v>430704.5608200167</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>430704.5608200163</v>
+      </c>
+      <c r="J6" t="n">
+        <v>213173.3584227387</v>
+      </c>
+      <c r="K6" t="n">
+        <v>430704.5608200164</v>
+      </c>
+      <c r="L6" t="n">
+        <v>430704.5608200164</v>
+      </c>
+      <c r="M6" t="n">
+        <v>345649.5328845045</v>
+      </c>
+      <c r="N6" t="n">
         <v>430704.5608200165</v>
       </c>
-      <c r="I6" t="n">
-        <v>430704.5608200166</v>
-      </c>
-      <c r="J6" t="n">
-        <v>213173.3584227389</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>430704.5608200165</v>
-      </c>
-      <c r="L6" t="n">
-        <v>430704.5608200161</v>
-      </c>
-      <c r="M6" t="n">
-        <v>345649.5328845046</v>
-      </c>
-      <c r="N6" t="n">
-        <v>430704.5608200168</v>
-      </c>
-      <c r="O6" t="n">
-        <v>430704.5608200167</v>
       </c>
       <c r="P6" t="n">
         <v>430704.5608200165</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>168.0688818921502</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6121281983123</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>17.26178070012992</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>177.6786129358086</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>229.6866737866847</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>126.4915721992626</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27825,16 +27827,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.7727461622105</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>258.1813303292865</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>34.41638144030702</v>
       </c>
       <c r="U8" t="n">
-        <v>12.66894511512373</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>115.314874072052</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>75.98140623163184</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28627,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28764,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-3.099138102943219e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233488</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>242.2322097768141</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32315,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9153144485699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32564,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32792,10 +32794,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7351844430274</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33029,10 +33031,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>318.3985571819322</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786837</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779087</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201436</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33898,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33977,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34211,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,16 +34453,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013304</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35963,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>220.9409070342396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36057,10 +36059,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066202</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998938</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36212,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>176.2645232599139</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342392</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402694</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37859,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1797494.911695782</v>
+        <v>1793482.301681789</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>197.2040098788574</v>
+        <v>261.3067342683331</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>234.8758626236981</v>
+        <v>187.6171084012677</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>188.9524625330048</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>119.5542949307283</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1107,22 +1107,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>143.0812453977549</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>28.34166800730445</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>52.33551640890152</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>169.5015886993131</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.71093418697623</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>49.33106662725072</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>245.8796921214428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1906,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833367</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>117.2645540643926</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>160.1816324288066</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>71.79687029690999</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>226.3293608490261</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>180.1003471321698</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>183.4720137757393</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>146.0535160667537</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T43" t="n">
-        <v>71.79687029691033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>214.0647808588581</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.400891308157</v>
+        <v>1942.56751757296</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.60582160917</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X2" t="n">
-        <v>2952.14006334809</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.000731372279</v>
+        <v>2329.167357637082</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686063</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106474</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080119</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986292</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1917.382287315189</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2303.982127379311</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2303.982127379311</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y5" t="n">
-        <v>2303.982127379311</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8037095364738</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="W7" t="n">
-        <v>851.5962886800039</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X7" t="n">
-        <v>851.5962886800039</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>630.8037095364738</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>161.3731731815041</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3154.392095650268</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3154.392095650268</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2823.329208306698</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2470.560553036583</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2097.094794775503</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1706.955462799692</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>215.0609594592686</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>215.0609594592686</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>215.0609594592686</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>215.0609594592686</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>215.0609594592686</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.7094242895083</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5269,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,13 +5287,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,52 +5509,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400667</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121598</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998241</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998241</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998241</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5694,31 +5694,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510504</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854702</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648815</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611854</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138365</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703064</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,16 +5758,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5980,55 +5980,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591808</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6141,10 +6141,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368208</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>481.447947124485</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>333.5348535420919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>333.5348535420919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3387542569719</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.734188001555</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2878.798005073648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4222.26644111619</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3967.581952910303</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3678.164782873342</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3450.175231975325</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3229.382652831795</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4437.229386686351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3195.647281583948</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C34" t="n">
-        <v>3026.711098656041</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.594459243706</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T34" t="n">
-        <v>4623.787448650995</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U34" t="n">
-        <v>4334.712221995193</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V34" t="n">
-        <v>4080.027733789307</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W34" t="n">
-        <v>3790.610563752346</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X34" t="n">
-        <v>3562.621012854329</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y34" t="n">
-        <v>3377.295746414188</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2490.32382148308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3047.734188001555</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2878.798005073648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>4476.258644543163</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>4256.657179566105</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>3967.581952910303</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3967.581952910303</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3678.164782873342</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3450.175231975325</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3229.382652831795</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.9786782557277</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>2191.586158026164</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1902.510931370362</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.826443164475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1358.409273127515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.419722229497</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6271430859674</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>131.6952193743939</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.30478226780133</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393517</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>134.8730892594353</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>7.065188669821254</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>68.4978425493139</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>60.1936374875649</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>106.0841272570744</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>24.81829093850975</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.11263957635552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>34.97276993489092</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T43" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>72.11969353038609</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879881.4739670028</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879881.4739670028</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670031</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="C4" t="n">
+        <v>92183.89891818173</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.8989181817</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26438,7 +26438,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-974659.390548776</v>
+        <v>-974659.3905487761</v>
       </c>
       <c r="C6" t="n">
-        <v>354085.3551788166</v>
+        <v>354085.3551788164</v>
       </c>
       <c r="D6" t="n">
-        <v>354085.3551788166</v>
+        <v>354085.3551788164</v>
       </c>
       <c r="E6" t="n">
-        <v>105292.099012661</v>
+        <v>104944.7197583045</v>
       </c>
       <c r="F6" t="n">
-        <v>430704.5608200168</v>
+        <v>430357.1815656598</v>
       </c>
       <c r="G6" t="n">
-        <v>430704.5608200165</v>
+        <v>430357.1815656594</v>
       </c>
       <c r="H6" t="n">
-        <v>430704.5608200164</v>
+        <v>430357.1815656594</v>
       </c>
       <c r="I6" t="n">
-        <v>430704.5608200163</v>
+        <v>430357.1815656591</v>
       </c>
       <c r="J6" t="n">
-        <v>213173.3584227387</v>
+        <v>212825.9791683818</v>
       </c>
       <c r="K6" t="n">
-        <v>430704.5608200164</v>
+        <v>430357.1815656593</v>
       </c>
       <c r="L6" t="n">
-        <v>430704.5608200164</v>
+        <v>430357.1815656596</v>
       </c>
       <c r="M6" t="n">
-        <v>345649.5328845045</v>
+        <v>345302.1536301475</v>
       </c>
       <c r="N6" t="n">
-        <v>430704.5608200165</v>
+        <v>430357.1815656596</v>
       </c>
       <c r="O6" t="n">
-        <v>430704.5608200165</v>
+        <v>430357.1815656598</v>
       </c>
       <c r="P6" t="n">
-        <v>430704.5608200165</v>
+        <v>430357.1815656596</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>168.0688818921502</v>
+        <v>103.9661575026744</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>17.26178070012992</v>
+        <v>64.52053492256027</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>165.7305790876782</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>229.6866737866847</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>76.46770387841434</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>258.1813303292865</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>358.5862092445519</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>34.41638144030702</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276459</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.314874072052</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-3.099138102943219e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,22 +31846,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,10 +32083,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779087</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>246.9596973201436</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334643</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>108.4053175402694</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1793482.301681789</v>
+        <v>1795242.831984575</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>261.3067342683331</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>77.10053779840484</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.6171084012677</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>209.3584761600179</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>188.9524625330048</v>
+        <v>27.59754090161729</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>97.97684251630041</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>143.0812453977549</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>52.33551640890152</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380458</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>49.33106662725072</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1815,19 +1815,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>152.8697920431064</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>117.2645540643926</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>160.1816324288066</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>218.0228155762088</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>18.66234525555503</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>226.3293608490261</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>111.306220275312</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.55695577161193</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>75.2135622723823</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1942.56751757296</v>
+        <v>1626.299101484278</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1626.299101484278</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1268.033402877527</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612893</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2719.306689612893</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y2" t="n">
-        <v>2329.167357637082</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>945.3964936596652</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W4" t="n">
-        <v>945.3964936596652</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="X4" t="n">
-        <v>945.3964936596652</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>945.3964936596652</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1808.800296392464</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="C5" t="n">
-        <v>1808.800296392464</v>
+        <v>1645.81552706783</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4597,22 +4597,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.800296392464</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>947.0373240702332</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>778.1011411423264</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>627.9845017299906</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>480.0714081475975</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>333.1814606496871</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>165.4786240244061</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1501.251696170064</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1501.251696170064</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>1501.251696170064</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="W7" t="n">
-        <v>1501.251696170064</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>1128.685788900473</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1128.685788900473</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116518</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.413029176106</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>958.147330569356</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>572.3590779711117</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>161.3731731815041</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.97538618064</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4947,19 +4947,19 @@
         <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2330.088019603117</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2110.486554626058</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5284,16 +5284,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908939</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,10 +5767,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C22" t="n">
-        <v>641.1291986799072</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1468.160787616111</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1178.743617579151</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="23">
@@ -5980,55 +5980,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591808</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.112229786771</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2245.257395441675</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2025.655930464616</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1736.580703808814</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1481.896215602927</v>
       </c>
       <c r="W28" t="n">
-        <v>1272.131553387299</v>
+        <v>1192.479045565966</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>964.4894946679489</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
         <v>484.8112968429803</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311365</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032296</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2404.986360578632</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>903.4258806613763</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7496,13 +7496,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
         <v>2129.438138565707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>131.6952193743939</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>99.26785128072157</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>134.8730892594353</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>7.065188669821254</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>34.11482774761919</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>67.52345255978867</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>47.71290145456665</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>60.1936374875649</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.81829093850975</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670028</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670031</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670031</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907537</v>
-      </c>
       <c r="J2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26438,7 +26438,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26524,46 +26524,46 @@
         <v>-974659.3905487761</v>
       </c>
       <c r="C6" t="n">
-        <v>354085.3551788164</v>
+        <v>354085.3551788167</v>
       </c>
       <c r="D6" t="n">
-        <v>354085.3551788164</v>
+        <v>354085.3551788163</v>
       </c>
       <c r="E6" t="n">
-        <v>104944.7197583045</v>
+        <v>105257.3610872254</v>
       </c>
       <c r="F6" t="n">
-        <v>430357.1815656598</v>
+        <v>430669.8228945805</v>
       </c>
       <c r="G6" t="n">
-        <v>430357.1815656594</v>
+        <v>430669.8228945805</v>
       </c>
       <c r="H6" t="n">
-        <v>430357.1815656594</v>
+        <v>430669.822894581</v>
       </c>
       <c r="I6" t="n">
-        <v>430357.1815656591</v>
+        <v>430669.8228945807</v>
       </c>
       <c r="J6" t="n">
-        <v>212825.9791683818</v>
+        <v>213138.6204973033</v>
       </c>
       <c r="K6" t="n">
-        <v>430357.1815656593</v>
+        <v>430669.822894581</v>
       </c>
       <c r="L6" t="n">
-        <v>430357.1815656596</v>
+        <v>430669.8228945809</v>
       </c>
       <c r="M6" t="n">
-        <v>345302.1536301475</v>
+        <v>345614.7949590689</v>
       </c>
       <c r="N6" t="n">
-        <v>430357.1815656596</v>
+        <v>430669.8228945807</v>
       </c>
       <c r="O6" t="n">
-        <v>430357.1815656598</v>
+        <v>430669.8228945808</v>
       </c>
       <c r="P6" t="n">
-        <v>430357.1815656596</v>
+        <v>430669.822894581</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>103.9661575026744</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>304.8298322738569</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>64.52053492256027</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>16.35117922901929</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>165.7305790876782</v>
+        <v>327.0855007190656</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>46.77817239802037</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>76.46770387841434</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>358.5862092445519</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>77.37908764444926</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276459</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34216,16 +34216,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M42" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M42" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
